--- a/teaching/traditional_assets/database/data/china/china_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/china/china_bank_money_center.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ20"/>
+  <dimension ref="A1:AQ21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,13 +591,13 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.032</v>
+        <v>0.0128</v>
       </c>
       <c r="E2">
-        <v>0.04219999999999999</v>
+        <v>0.0229</v>
       </c>
       <c r="F2">
-        <v>0.0252</v>
+        <v>0.0204</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -606,91 +606,91 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.005413065467380787</v>
+        <v>0.0008889157393445691</v>
       </c>
       <c r="J2">
-        <v>0.004573529947558732</v>
+        <v>0.00076065301654601</v>
       </c>
       <c r="K2">
-        <v>219737.9</v>
+        <v>217876.4</v>
       </c>
       <c r="L2">
-        <v>0.4536061767326336</v>
+        <v>0.427701322602017</v>
       </c>
       <c r="M2">
-        <v>57802.8858</v>
+        <v>66993.45759999999</v>
       </c>
       <c r="N2">
-        <v>0.04019415855052915</v>
+        <v>0.04927148133803817</v>
       </c>
       <c r="O2">
-        <v>0.2630537827111299</v>
+        <v>0.307483773368754</v>
       </c>
       <c r="P2">
-        <v>57760.5858</v>
+        <v>61030.8576</v>
       </c>
       <c r="Q2">
-        <v>0.0401647445708782</v>
+        <v>0.04488618544272396</v>
       </c>
       <c r="R2">
-        <v>0.2628612806438944</v>
+        <v>0.2801168809471792</v>
       </c>
       <c r="S2">
-        <v>42.3</v>
+        <v>5962.6</v>
       </c>
       <c r="T2">
-        <v>0.0007317973733415226</v>
+        <v>0.08900272076716938</v>
       </c>
       <c r="U2">
-        <v>952143.5</v>
+        <v>1122990.3</v>
       </c>
       <c r="V2">
-        <v>0.6620881686473818</v>
+        <v>0.8259223749819995</v>
       </c>
       <c r="W2">
-        <v>0.1300936984701298</v>
+        <v>0.1141053286423458</v>
       </c>
       <c r="X2">
-        <v>0.09967859038318828</v>
+        <v>0.1127273378627318</v>
       </c>
       <c r="Y2">
-        <v>0.03041510808694152</v>
+        <v>0.001377990779614022</v>
       </c>
       <c r="Z2">
-        <v>0.1207814667428729</v>
+        <v>0.1324255404516497</v>
       </c>
       <c r="AA2">
-        <v>0.0004821957100960022</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.04410320165417594</v>
+        <v>0.03864735551136175</v>
       </c>
       <c r="AC2">
-        <v>-0.04376013899714849</v>
+        <v>-0.03864735551136175</v>
       </c>
       <c r="AD2">
-        <v>2806422.7</v>
+        <v>3610071.8</v>
       </c>
       <c r="AE2">
-        <v>26728.89504401671</v>
+        <v>4574.876054655673</v>
       </c>
       <c r="AF2">
-        <v>2833151.595044017</v>
+        <v>3614646.676054656</v>
       </c>
       <c r="AG2">
-        <v>1881008.095044017</v>
+        <v>2491656.376054656</v>
       </c>
       <c r="AH2">
-        <v>0.6633084091302788</v>
+        <v>0.7266604640428418</v>
       </c>
       <c r="AI2">
-        <v>0.5887228877458449</v>
+        <v>0.611367219167878</v>
       </c>
       <c r="AJ2">
-        <v>0.5667223678699518</v>
+        <v>0.646958874367488</v>
       </c>
       <c r="AK2">
-        <v>0.4872793684313975</v>
+        <v>0.5202430514249651</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>352.2116842369478</v>
+        <v>2639.327240824682</v>
       </c>
       <c r="AP2">
-        <v>236.070293052713</v>
+        <v>1821.652563280199</v>
       </c>
     </row>
     <row r="3">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="F3">
-        <v>0.076</v>
+        <v>0.15</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -731,34 +731,34 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.007620183704985625</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.007381220483334697</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>8378.4</v>
+        <v>8760.200000000001</v>
       </c>
       <c r="L3">
-        <v>0.2773386295928501</v>
+        <v>0.2628267633143019</v>
       </c>
       <c r="M3">
-        <v>2211.2</v>
+        <v>2311.4</v>
       </c>
       <c r="N3">
-        <v>0.03188547071156857</v>
+        <v>0.0382924934188401</v>
       </c>
       <c r="O3">
-        <v>0.2639167382793851</v>
+        <v>0.2638524234606516</v>
       </c>
       <c r="P3">
-        <v>2211.2</v>
+        <v>2311.4</v>
       </c>
       <c r="Q3">
-        <v>0.03188547071156857</v>
+        <v>0.0382924934188401</v>
       </c>
       <c r="R3">
-        <v>0.2639167382793851</v>
+        <v>0.2638524234606516</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -767,67 +767,61 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>41199.4</v>
+        <v>22587.6</v>
       </c>
       <c r="V3">
-        <v>0.5940947277651043</v>
+        <v>0.3742041725133652</v>
       </c>
       <c r="W3">
-        <v>0.1366264753748161</v>
+        <v>0.1353137709511445</v>
       </c>
       <c r="X3">
-        <v>0.05436662418817863</v>
+        <v>0.04871617947002752</v>
       </c>
       <c r="Y3">
-        <v>0.08225985118663749</v>
+        <v>0.08659759148111701</v>
       </c>
       <c r="Z3">
-        <v>0.4698189076233759</v>
+        <v>0.4525405825200536</v>
       </c>
       <c r="AA3">
-        <v>0.003467836944407594</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.04357528930071543</v>
+        <v>0.03712457480222889</v>
       </c>
       <c r="AC3">
-        <v>-0.04010745235630784</v>
+        <v>-0.03712457480222889</v>
       </c>
       <c r="AD3">
-        <v>43415.1</v>
+        <v>42050</v>
       </c>
       <c r="AE3">
-        <v>1424.471251361921</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>44839.57125136192</v>
+        <v>42050</v>
       </c>
       <c r="AG3">
-        <v>3640.17125136192</v>
+        <v>19462.4</v>
       </c>
       <c r="AH3">
-        <v>0.3926827781992209</v>
+        <v>0.4105976172644337</v>
       </c>
       <c r="AI3">
-        <v>0.3851820554071287</v>
+        <v>0.3025584718530681</v>
       </c>
       <c r="AJ3">
-        <v>0.04987330432166614</v>
+        <v>0.2438160906292711</v>
       </c>
       <c r="AK3">
-        <v>0.04839882788334716</v>
+        <v>0.167211655603649</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
         <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>84.28479906814211</v>
-      </c>
-      <c r="AP3">
-        <v>7.066921474202912</v>
       </c>
     </row>
     <row r="4">
@@ -847,13 +841,13 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.0217</v>
+        <v>0.0228</v>
       </c>
       <c r="E4">
-        <v>0.0222</v>
+        <v>0.008569999999999999</v>
       </c>
       <c r="F4">
-        <v>0.0527</v>
+        <v>0.0491</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -862,34 +856,34 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.004279454164717759</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.003424176625589497</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>43335.3</v>
+        <v>42585.1</v>
       </c>
       <c r="L4">
-        <v>0.4845582036080803</v>
+        <v>0.4427369887509617</v>
       </c>
       <c r="M4">
-        <v>12495.1</v>
+        <v>14750</v>
       </c>
       <c r="N4">
-        <v>0.04242269506050321</v>
+        <v>0.05621606788614245</v>
       </c>
       <c r="O4">
-        <v>0.2883353755483405</v>
+        <v>0.3463652779962945</v>
       </c>
       <c r="P4">
-        <v>12495.1</v>
+        <v>14750</v>
       </c>
       <c r="Q4">
-        <v>0.04242269506050321</v>
+        <v>0.05621606788614245</v>
       </c>
       <c r="R4">
-        <v>0.2883353755483405</v>
+        <v>0.3463652779962945</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -898,67 +892,61 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>341200.8</v>
+        <v>355726.9</v>
       </c>
       <c r="V4">
-        <v>1.158426702691435</v>
+        <v>1.355767292157763</v>
       </c>
       <c r="W4">
-        <v>0.131306000098778</v>
+        <v>0.1146554555783511</v>
       </c>
       <c r="X4">
-        <v>0.05285134425134594</v>
+        <v>0.04907278724782532</v>
       </c>
       <c r="Y4">
-        <v>0.07845465584743208</v>
+        <v>0.06558266833052576</v>
       </c>
       <c r="Z4">
-        <v>0.3680919128421961</v>
+        <v>0.4991789853462897</v>
       </c>
       <c r="AA4">
-        <v>0.001260411724022774</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.04351671632592896</v>
+        <v>0.03715432066505655</v>
       </c>
       <c r="AC4">
-        <v>-0.04225630460190619</v>
+        <v>-0.03715432066505655</v>
       </c>
       <c r="AD4">
-        <v>162471.2</v>
+        <v>187601.9</v>
       </c>
       <c r="AE4">
-        <v>2845.386437342313</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>165316.5864373423</v>
+        <v>187601.9</v>
       </c>
       <c r="AG4">
-        <v>-175884.2135626577</v>
+        <v>-168125</v>
       </c>
       <c r="AH4">
-        <v>0.3594974484616187</v>
+        <v>0.4169094169016388</v>
       </c>
       <c r="AI4">
-        <v>0.3067465227242228</v>
+        <v>0.311023533930981</v>
       </c>
       <c r="AJ4">
-        <v>-1.482329983818415</v>
+        <v>-1.783715539146258</v>
       </c>
       <c r="AK4">
-        <v>-0.889496004629372</v>
+        <v>-0.679432933655016</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
         <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>170.6988863206556</v>
-      </c>
-      <c r="AP4">
-        <v>-184.7911468403632</v>
       </c>
     </row>
     <row r="5">
@@ -969,7 +957,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bank of Shanghai Co., Ltd. (SHSE:601229)</t>
+          <t>Industrial Bank Co., Ltd. (SHSE:601166)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -977,6 +965,15 @@
           <t>Bank (Money Center)</t>
         </is>
       </c>
+      <c r="D5">
+        <v>0.022</v>
+      </c>
+      <c r="E5">
+        <v>0.04650000000000001</v>
+      </c>
+      <c r="F5">
+        <v>0.021</v>
+      </c>
       <c r="G5">
         <v>0</v>
       </c>
@@ -984,91 +981,91 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.008164438956780545</v>
+        <v>0.007139703064290249</v>
       </c>
       <c r="J5">
-        <v>0.007378662077503192</v>
+        <v>0.006450511299811351</v>
       </c>
       <c r="K5">
-        <v>2814.3</v>
+        <v>9252.700000000001</v>
       </c>
       <c r="L5">
-        <v>0.6252332711276993</v>
+        <v>0.5211614284104991</v>
       </c>
       <c r="M5">
-        <v>146.3</v>
+        <v>281.1</v>
       </c>
       <c r="N5">
-        <v>0.007555803456147419</v>
+        <v>0.004232872751803978</v>
       </c>
       <c r="O5">
-        <v>0.05198450769285435</v>
+        <v>0.03038032141969371</v>
       </c>
       <c r="P5">
-        <v>141.8</v>
+        <v>267.6</v>
       </c>
       <c r="Q5">
-        <v>0.007323396651276173</v>
+        <v>0.004029586440351279</v>
       </c>
       <c r="R5">
-        <v>0.05038553103791352</v>
+        <v>0.02892128784030607</v>
       </c>
       <c r="S5">
-        <v>4.5</v>
+        <v>13.5</v>
       </c>
       <c r="T5">
-        <v>0.03075871496924128</v>
+        <v>0.04802561366061899</v>
       </c>
       <c r="U5">
-        <v>7575.6</v>
+        <v>52844.9</v>
       </c>
       <c r="V5">
-        <v>0.391249109107248</v>
+        <v>0.7957514666730915</v>
       </c>
       <c r="W5">
-        <v>0.1401201897943231</v>
+        <v>0.1393050930135922</v>
       </c>
       <c r="X5">
-        <v>0.09515500941034961</v>
+        <v>0.1039371748506242</v>
       </c>
       <c r="Y5">
-        <v>0.04496518038397347</v>
+        <v>0.03536791816296805</v>
       </c>
       <c r="Z5">
-        <v>0.06146816395225897</v>
+        <v>0.08066171920969194</v>
       </c>
       <c r="AA5">
-        <v>0.000453552810328282</v>
+        <v>0.0005203093312243282</v>
       </c>
       <c r="AB5">
-        <v>0.04321211652768931</v>
+        <v>0.03775615992452671</v>
       </c>
       <c r="AC5">
-        <v>-0.04275856371736103</v>
+        <v>-0.03723585059330238</v>
       </c>
       <c r="AD5">
-        <v>56790.2</v>
+        <v>234145.3</v>
       </c>
       <c r="AE5">
-        <v>194.251136838697</v>
+        <v>979.2085589829547</v>
       </c>
       <c r="AF5">
-        <v>56984.4511368387</v>
+        <v>235124.508558983</v>
       </c>
       <c r="AG5">
-        <v>49408.8511368387</v>
+        <v>182279.608558983</v>
       </c>
       <c r="AH5">
-        <v>0.7463870612985964</v>
+        <v>0.7797629710715366</v>
       </c>
       <c r="AI5">
-        <v>0.7009204901140802</v>
+        <v>0.734495519677019</v>
       </c>
       <c r="AJ5">
-        <v>0.7184500300644656</v>
+        <v>0.7329638305830027</v>
       </c>
       <c r="AK5">
-        <v>0.6701881463724816</v>
+        <v>0.6820001141973128</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -1077,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="AN5">
-        <v>751.1931216931217</v>
+        <v>725.8068815871047</v>
       </c>
       <c r="AP5">
-        <v>653.5562319687659</v>
+        <v>565.0328845597736</v>
       </c>
     </row>
     <row r="6">
@@ -1091,7 +1088,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Industrial Bank Co., Ltd. (SHSE:601166)</t>
+          <t>Bank of Shanghai Co., Ltd. (SHSE:601229)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1100,13 +1097,10 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.0391</v>
+        <v>0.0393</v>
       </c>
       <c r="E6">
-        <v>0.06950000000000001</v>
-      </c>
-      <c r="F6">
-        <v>0.04</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1115,34 +1109,34 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.004665462165159476</v>
+        <v>0.008858476740418848</v>
       </c>
       <c r="J6">
-        <v>0.004205129726807692</v>
+        <v>0.008448412366475486</v>
       </c>
       <c r="K6">
-        <v>9083.5</v>
+        <v>2796.5</v>
       </c>
       <c r="L6">
-        <v>0.544544958605351</v>
+        <v>0.6380624258464908</v>
       </c>
       <c r="M6">
-        <v>2015.0974</v>
+        <v>111.7</v>
       </c>
       <c r="N6">
-        <v>0.03411129393203802</v>
+        <v>0.006547402726814457</v>
       </c>
       <c r="O6">
-        <v>0.2218415148345902</v>
+        <v>0.03994278562488825</v>
       </c>
       <c r="P6">
-        <v>2015.0974</v>
+        <v>111.7</v>
       </c>
       <c r="Q6">
-        <v>0.03411129393203802</v>
+        <v>0.006547402726814457</v>
       </c>
       <c r="R6">
-        <v>0.2218415148345902</v>
+        <v>0.03994278562488825</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -1151,55 +1145,55 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>57898.4</v>
+        <v>8314.299999999999</v>
       </c>
       <c r="V6">
-        <v>0.9800962179767141</v>
+        <v>0.4873506758420182</v>
       </c>
       <c r="W6">
-        <v>0.1456034444066862</v>
+        <v>0.1303711370004149</v>
       </c>
       <c r="X6">
-        <v>0.104202171356027</v>
+        <v>0.1177131416178548</v>
       </c>
       <c r="Y6">
-        <v>0.04140127305065926</v>
+        <v>0.01265799538256009</v>
       </c>
       <c r="Z6">
-        <v>0.08213996369435229</v>
+        <v>0.05948928203735155</v>
       </c>
       <c r="AA6">
-        <v>0.0003454092030900255</v>
+        <v>0.0005025899860371089</v>
       </c>
       <c r="AB6">
-        <v>0.04322494149185802</v>
+        <v>0.03785412342260794</v>
       </c>
       <c r="AC6">
-        <v>-0.04287953228876799</v>
+        <v>-0.03735153343657083</v>
       </c>
       <c r="AD6">
-        <v>202865.3</v>
+        <v>72289.60000000001</v>
       </c>
       <c r="AE6">
-        <v>1081.379460845957</v>
+        <v>216.8753407104614</v>
       </c>
       <c r="AF6">
-        <v>203946.6794608459</v>
+        <v>72506.47534071047</v>
       </c>
       <c r="AG6">
-        <v>146048.279460846</v>
+        <v>64192.17534071047</v>
       </c>
       <c r="AH6">
-        <v>0.7754011007753703</v>
+        <v>0.8095251393991881</v>
       </c>
       <c r="AI6">
-        <v>0.7301877447422928</v>
+        <v>0.7243724319872202</v>
       </c>
       <c r="AJ6">
-        <v>0.7120052363091869</v>
+        <v>0.7900344460274233</v>
       </c>
       <c r="AK6">
-        <v>0.6596318349095692</v>
+        <v>0.6994038283126516</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -1208,10 +1202,10 @@
         <v>0</v>
       </c>
       <c r="AN6">
-        <v>689.7834070044202</v>
+        <v>879.4355231143553</v>
       </c>
       <c r="AP6">
-        <v>496.5939458036244</v>
+        <v>780.9267073079133</v>
       </c>
     </row>
     <row r="7">
@@ -1231,10 +1225,10 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.0571</v>
+        <v>0.0128</v>
       </c>
       <c r="E7">
-        <v>0.0738</v>
+        <v>0.0303</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1243,91 +1237,91 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.00516490428741508</v>
+        <v>0.006042717785885661</v>
       </c>
       <c r="J7">
-        <v>0.004368684257400952</v>
+        <v>0.005419112975412001</v>
       </c>
       <c r="K7">
-        <v>3002.2</v>
+        <v>2934.4</v>
       </c>
       <c r="L7">
-        <v>0.526905121274878</v>
+        <v>0.5412524209167204</v>
       </c>
       <c r="M7">
-        <v>85.59999999999999</v>
+        <v>70.7</v>
       </c>
       <c r="N7">
-        <v>0.004963066897039553</v>
+        <v>0.004510539478385138</v>
       </c>
       <c r="O7">
-        <v>0.02851242422223703</v>
+        <v>0.02409351145038168</v>
       </c>
       <c r="P7">
-        <v>47.8</v>
+        <v>70.7</v>
       </c>
       <c r="Q7">
-        <v>0.002771432215870218</v>
+        <v>0.004510539478385138</v>
       </c>
       <c r="R7">
-        <v>0.01592165745120245</v>
+        <v>0.02409351145038168</v>
       </c>
       <c r="S7">
-        <v>37.8</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>0.441588785046729</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>24175.4</v>
+        <v>24771</v>
       </c>
       <c r="V7">
-        <v>1.401683732040771</v>
+        <v>1.580347573112846</v>
       </c>
       <c r="W7">
-        <v>0.1215598466229102</v>
+        <v>0.1129636402132697</v>
       </c>
       <c r="X7">
-        <v>0.1218809692694268</v>
+        <v>0.1420527419604009</v>
       </c>
       <c r="Y7">
-        <v>-0.0003211226465165834</v>
+        <v>-0.0290891017471312</v>
       </c>
       <c r="Z7">
-        <v>0.06643172852979347</v>
+        <v>0.06697559401632389</v>
       </c>
       <c r="AA7">
-        <v>0.0002902192466200425</v>
+        <v>0.0003629483105697872</v>
       </c>
       <c r="AB7">
-        <v>0.04324308037610254</v>
+        <v>0.03797496461956264</v>
       </c>
       <c r="AC7">
-        <v>-0.0429528611294825</v>
+        <v>-0.03761201630899285</v>
       </c>
       <c r="AD7">
-        <v>75983.2</v>
+        <v>85597.60000000001</v>
       </c>
       <c r="AE7">
-        <v>728.3570417558318</v>
+        <v>667.1970276191043</v>
       </c>
       <c r="AF7">
-        <v>76711.55704175583</v>
+        <v>86264.7970276191</v>
       </c>
       <c r="AG7">
-        <v>52536.15704175583</v>
+        <v>61493.7970276191</v>
       </c>
       <c r="AH7">
-        <v>0.8164368726194441</v>
+        <v>0.8462377529248811</v>
       </c>
       <c r="AI7">
-        <v>0.7275564557922454</v>
+        <v>0.7309058644616138</v>
       </c>
       <c r="AJ7">
-        <v>0.7528443557315398</v>
+        <v>0.7968800541706319</v>
       </c>
       <c r="AK7">
-        <v>0.6465045096712532</v>
+        <v>0.6594261769015091</v>
       </c>
       <c r="AL7">
         <v>0</v>
@@ -1336,10 +1330,10 @@
         <v>0</v>
       </c>
       <c r="AN7">
-        <v>433.9417475728155</v>
+        <v>515.0276774969916</v>
       </c>
       <c r="AP7">
-        <v>300.0351630026033</v>
+        <v>369.998778746204</v>
       </c>
     </row>
     <row r="8">
@@ -1359,13 +1353,13 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.0433</v>
+        <v>0.0235</v>
       </c>
       <c r="E8">
-        <v>0.0562</v>
+        <v>0.0385</v>
       </c>
       <c r="F8">
-        <v>0.027</v>
+        <v>0.00228</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1374,34 +1368,34 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.002958337507606725</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.002441106799343508</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>5218</v>
+        <v>5236.5</v>
       </c>
       <c r="L8">
-        <v>0.4493859482921956</v>
+        <v>0.440730890299123</v>
       </c>
       <c r="M8">
-        <v>1182.1</v>
+        <v>1767.2</v>
       </c>
       <c r="N8">
-        <v>0.03800145949264949</v>
+        <v>0.06061499939974961</v>
       </c>
       <c r="O8">
-        <v>0.2265427366807206</v>
+        <v>0.3374773226391674</v>
       </c>
       <c r="P8">
-        <v>1182.1</v>
+        <v>1767.2</v>
       </c>
       <c r="Q8">
-        <v>0.03800145949264949</v>
+        <v>0.06061499939974961</v>
       </c>
       <c r="R8">
-        <v>0.2265427366807206</v>
+        <v>0.3374773226391674</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1410,67 +1404,61 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>20635.6</v>
+        <v>19959.1</v>
       </c>
       <c r="V8">
-        <v>0.6633812008345469</v>
+        <v>0.6845975749884237</v>
       </c>
       <c r="W8">
-        <v>0.1140623736253167</v>
+        <v>0.1190681916369176</v>
       </c>
       <c r="X8">
-        <v>0.1135231710072837</v>
+        <v>0.1127273378627318</v>
       </c>
       <c r="Y8">
-        <v>0.0005392026180329745</v>
+        <v>0.006340853774185806</v>
       </c>
       <c r="Z8">
-        <v>0.07697394417638995</v>
+        <v>0.07694499599130132</v>
       </c>
       <c r="AA8">
-        <v>0.0001879016185012731</v>
+        <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.04323540923190861</v>
+        <v>0.03782188286413583</v>
       </c>
       <c r="AC8">
-        <v>-0.04304750761340734</v>
+        <v>-0.03782188286413583</v>
       </c>
       <c r="AD8">
-        <v>122169.7</v>
+        <v>116421.6</v>
       </c>
       <c r="AE8">
-        <v>1546.747799320876</v>
+        <v>0</v>
       </c>
       <c r="AF8">
-        <v>123716.4477993209</v>
+        <v>116421.6</v>
       </c>
       <c r="AG8">
-        <v>103080.8477993209</v>
+        <v>96462.5</v>
       </c>
       <c r="AH8">
-        <v>0.7990823695154424</v>
+        <v>0.7997301754889711</v>
       </c>
       <c r="AI8">
-        <v>0.6992677844505946</v>
+        <v>0.642047995764593</v>
       </c>
       <c r="AJ8">
-        <v>0.7681848985978903</v>
+        <v>0.7679095982231704</v>
       </c>
       <c r="AK8">
-        <v>0.6595601960543885</v>
+        <v>0.5977744231558152</v>
       </c>
       <c r="AL8">
         <v>0</v>
       </c>
       <c r="AM8">
         <v>0</v>
-      </c>
-      <c r="AN8">
-        <v>355.4544661041606</v>
-      </c>
-      <c r="AP8">
-        <v>299.9151812607532</v>
       </c>
     </row>
     <row r="9">
@@ -1481,7 +1469,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>China Construction Bank Corporation (SEHK:939)</t>
+          <t>China Zheshang Bank Co., Ltd (SEHK:2016)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1490,13 +1478,10 @@
         </is>
       </c>
       <c r="D9">
-        <v>0.00784</v>
+        <v>0.114</v>
       </c>
       <c r="E9">
-        <v>0.0308</v>
-      </c>
-      <c r="F9">
-        <v>0.0264</v>
+        <v>0.12</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1505,34 +1490,34 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.004750125224170452</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.003950236589808917</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>37198</v>
+        <v>1742</v>
       </c>
       <c r="L9">
-        <v>0.5185344202696524</v>
+        <v>0.4343706363455017</v>
       </c>
       <c r="M9">
-        <v>10750.473</v>
+        <v>553.2</v>
       </c>
       <c r="N9">
-        <v>0.04938475277242991</v>
+        <v>0.043655992045329</v>
       </c>
       <c r="O9">
-        <v>0.2890067476746062</v>
+        <v>0.3175660160734788</v>
       </c>
       <c r="P9">
-        <v>10750.473</v>
+        <v>553.2</v>
       </c>
       <c r="Q9">
-        <v>0.04938475277242991</v>
+        <v>0.043655992045329</v>
       </c>
       <c r="R9">
-        <v>0.2890067476746062</v>
+        <v>0.3175660160734788</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1541,67 +1526,61 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>90726.89999999999</v>
+        <v>12336.5</v>
       </c>
       <c r="V9">
-        <v>0.4167747341264864</v>
+        <v>0.9735396707650058</v>
       </c>
       <c r="W9">
-        <v>0.1386763377487221</v>
+        <v>0.1277266561572021</v>
       </c>
       <c r="X9">
-        <v>0.06471164220969475</v>
+        <v>0.1189251782417967</v>
       </c>
       <c r="Y9">
-        <v>0.07396469553902738</v>
+        <v>0.008801477915405365</v>
       </c>
       <c r="Z9">
-        <v>0.1784601365209612</v>
+        <v>0.06833505715887424</v>
       </c>
       <c r="AA9">
-        <v>0.0007049597611073957</v>
+        <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.0438553811640856</v>
+        <v>0.03786149010805281</v>
       </c>
       <c r="AC9">
-        <v>-0.0431504214029782</v>
+        <v>-0.03786149010805281</v>
       </c>
       <c r="AD9">
-        <v>264628.7</v>
+        <v>54646.6</v>
       </c>
       <c r="AE9">
-        <v>2914.706084093646</v>
+        <v>0</v>
       </c>
       <c r="AF9">
-        <v>267543.4060840937</v>
+        <v>54646.6</v>
       </c>
       <c r="AG9">
-        <v>176816.5060840937</v>
+        <v>42310.1</v>
       </c>
       <c r="AH9">
-        <v>0.5513727009262394</v>
+        <v>0.8117632029281742</v>
       </c>
       <c r="AI9">
-        <v>0.4704127659019582</v>
+        <v>0.739984535866093</v>
       </c>
       <c r="AJ9">
-        <v>0.4481988381306833</v>
+        <v>0.7695277900545453</v>
       </c>
       <c r="AK9">
-        <v>0.3698974735590936</v>
+        <v>0.6878371304367616</v>
       </c>
       <c r="AL9">
         <v>0</v>
       </c>
       <c r="AM9">
         <v>0</v>
-      </c>
-      <c r="AN9">
-        <v>286.4877124607556</v>
-      </c>
-      <c r="AP9">
-        <v>191.4220050710119</v>
       </c>
     </row>
     <row r="10">
@@ -1612,7 +1591,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Agricultural Bank of China Limited (SEHK:1288)</t>
+          <t>China Construction Bank Corporation (SEHK:939)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1621,13 +1600,13 @@
         </is>
       </c>
       <c r="D10">
-        <v>0.0168</v>
+        <v>0.00726</v>
       </c>
       <c r="E10">
-        <v>0.0322</v>
+        <v>0.0154</v>
       </c>
       <c r="F10">
-        <v>0.009599999999999999</v>
+        <v>0.0222</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1636,34 +1615,34 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.003736810089660658</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.003068270748738903</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>29636.7</v>
+        <v>36405.3</v>
       </c>
       <c r="L10">
-        <v>0.440850442238294</v>
+        <v>0.4794100953808188</v>
       </c>
       <c r="M10">
-        <v>10292.5</v>
+        <v>11750.517</v>
       </c>
       <c r="N10">
-        <v>0.05632947970551599</v>
+        <v>0.06124293717585019</v>
       </c>
       <c r="O10">
-        <v>0.3472890031616205</v>
+        <v>0.3227694044548458</v>
       </c>
       <c r="P10">
-        <v>10292.5</v>
+        <v>11750.517</v>
       </c>
       <c r="Q10">
-        <v>0.05632947970551599</v>
+        <v>0.06124293717585019</v>
       </c>
       <c r="R10">
-        <v>0.3472890031616205</v>
+        <v>0.3227694044548458</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1672,67 +1651,61 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>151948.9</v>
+        <v>125251.4</v>
       </c>
       <c r="V10">
-        <v>0.8315960630386668</v>
+        <v>0.6528022232032243</v>
       </c>
       <c r="W10">
-        <v>0.131295719389274</v>
+        <v>0.1265441174937068</v>
       </c>
       <c r="X10">
-        <v>0.06970772665055168</v>
+        <v>0.0692436020907761</v>
       </c>
       <c r="Y10">
-        <v>0.06158799273872236</v>
+        <v>0.05730051540293066</v>
       </c>
       <c r="Z10">
-        <v>0.1972770864417668</v>
+        <v>0.1607710213842097</v>
       </c>
       <c r="AA10">
-        <v>0.000605299513725709</v>
+        <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.04394410833281376</v>
+        <v>0.03819092437449482</v>
       </c>
       <c r="AC10">
-        <v>-0.04333880881908805</v>
+        <v>-0.03819092437449482</v>
       </c>
       <c r="AD10">
-        <v>274555.7</v>
+        <v>336499.5</v>
       </c>
       <c r="AE10">
-        <v>1406.942287752273</v>
+        <v>0</v>
       </c>
       <c r="AF10">
-        <v>275962.6422877523</v>
+        <v>336499.5</v>
       </c>
       <c r="AG10">
-        <v>124013.7422877523</v>
+        <v>211248.1</v>
       </c>
       <c r="AH10">
-        <v>0.6016423066900164</v>
+        <v>0.6368672293565757</v>
       </c>
       <c r="AI10">
-        <v>0.5063039172082761</v>
+        <v>0.4934387939956694</v>
       </c>
       <c r="AJ10">
-        <v>0.4043047337560476</v>
+        <v>0.5240387740086337</v>
       </c>
       <c r="AK10">
-        <v>0.3154727572296787</v>
+        <v>0.3794673362356933</v>
       </c>
       <c r="AL10">
         <v>0</v>
       </c>
       <c r="AM10">
         <v>0</v>
-      </c>
-      <c r="AN10">
-        <v>515.5007510326699</v>
-      </c>
-      <c r="AP10">
-        <v>232.8459299432075</v>
       </c>
     </row>
     <row r="11">
@@ -1743,7 +1716,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Bank of Communications Co., Ltd. (SEHK:3328)</t>
+          <t>Agricultural Bank of China Limited (SEHK:1288)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1752,13 +1725,13 @@
         </is>
       </c>
       <c r="D11">
-        <v>0.032</v>
+        <v>0.008750000000000001</v>
       </c>
       <c r="E11">
-        <v>0.0327</v>
+        <v>0.0177</v>
       </c>
       <c r="F11">
-        <v>0.011</v>
+        <v>0.0109</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1767,34 +1740,34 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.009743923053684295</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.008499251299751737</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>10698.5</v>
+        <v>28974.8</v>
       </c>
       <c r="L11">
-        <v>0.4225048970049286</v>
+        <v>0.4110821999824074</v>
       </c>
       <c r="M11">
-        <v>3119.0334</v>
+        <v>9374.700000000001</v>
       </c>
       <c r="N11">
-        <v>0.05506855511475289</v>
+        <v>0.05688414195338204</v>
       </c>
       <c r="O11">
-        <v>0.2915393185960649</v>
+        <v>0.3235466681392107</v>
       </c>
       <c r="P11">
-        <v>3119.0334</v>
+        <v>9374.700000000001</v>
       </c>
       <c r="Q11">
-        <v>0.05506855511475289</v>
+        <v>0.05688414195338204</v>
       </c>
       <c r="R11">
-        <v>0.2915393185960649</v>
+        <v>0.3235466681392107</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -1803,67 +1776,61 @@
         <v>0</v>
       </c>
       <c r="U11">
-        <v>33038.9</v>
+        <v>167685.4</v>
       </c>
       <c r="V11">
-        <v>0.5833231813358617</v>
+        <v>1.017487503291801</v>
       </c>
       <c r="W11">
-        <v>0.1180357422620584</v>
+        <v>0.1080030132955516</v>
       </c>
       <c r="X11">
-        <v>0.05992958076768876</v>
+        <v>0.0781134683584601</v>
       </c>
       <c r="Y11">
-        <v>0.05810616149436967</v>
+        <v>0.02988954493709148</v>
       </c>
       <c r="Z11">
-        <v>0.06010395408341957</v>
+        <v>0.1804089315528654</v>
       </c>
       <c r="AA11">
-        <v>0.0005108386098637225</v>
+        <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.04426229497553813</v>
+        <v>0.03843441459837091</v>
       </c>
       <c r="AC11">
-        <v>-0.04375145636567441</v>
+        <v>-0.03843441459837091</v>
       </c>
       <c r="AD11">
-        <v>52746.6</v>
+        <v>364317.6</v>
       </c>
       <c r="AE11">
-        <v>1614.841390019139</v>
+        <v>0</v>
       </c>
       <c r="AF11">
-        <v>54361.44139001914</v>
+        <v>364317.6</v>
       </c>
       <c r="AG11">
-        <v>21322.54139001913</v>
+        <v>196632.2</v>
       </c>
       <c r="AH11">
-        <v>0.4897403265720213</v>
+        <v>0.6885336246340629</v>
       </c>
       <c r="AI11">
-        <v>0.3317190887859784</v>
+        <v>0.5333768251864678</v>
       </c>
       <c r="AJ11">
-        <v>0.2735004164849319</v>
+        <v>0.544031080502308</v>
       </c>
       <c r="AK11">
-        <v>0.162967728619003</v>
+        <v>0.3815475331150757</v>
       </c>
       <c r="AL11">
         <v>0</v>
       </c>
       <c r="AM11">
         <v>0</v>
-      </c>
-      <c r="AN11">
-        <v>92.58662453923117</v>
-      </c>
-      <c r="AP11">
-        <v>37.42766612255421</v>
       </c>
     </row>
     <row r="12">
@@ -1874,7 +1841,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>China Zheshang Bank Co., Ltd (SEHK:2016)</t>
+          <t>China Merchants Bank Co., Ltd. (SHSE:600036)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1883,10 +1850,13 @@
         </is>
       </c>
       <c r="D12">
-        <v>0.168</v>
+        <v>0.0832</v>
       </c>
       <c r="E12">
-        <v>0.196</v>
+        <v>0.0949</v>
+      </c>
+      <c r="F12">
+        <v>0.0164</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1895,100 +1865,97 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>-0.009550494453104089</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>-0.008362569687021624</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>1800.7</v>
+        <v>13581.8</v>
       </c>
       <c r="L12">
-        <v>0.4635722376686232</v>
+        <v>0.4311490917863968</v>
       </c>
       <c r="M12">
-        <v>-0</v>
+        <v>3491</v>
       </c>
       <c r="N12">
-        <v>-0</v>
+        <v>0.02079385964651034</v>
       </c>
       <c r="O12">
-        <v>-0</v>
+        <v>0.2570351499801204</v>
       </c>
       <c r="P12">
-        <v>-0</v>
+        <v>3491</v>
       </c>
       <c r="Q12">
-        <v>-0</v>
+        <v>0.02079385964651034</v>
       </c>
       <c r="R12">
-        <v>-0</v>
+        <v>0.2570351499801204</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
       <c r="U12">
-        <v>5280.6</v>
+        <v>1773.3</v>
       </c>
       <c r="V12">
-        <v>0.3811579243689594</v>
+        <v>0.01056251827876161</v>
       </c>
       <c r="W12">
-        <v>0.1473833259670317</v>
+        <v>0.1726343458686373</v>
       </c>
       <c r="X12">
-        <v>0.1056151827019371</v>
+        <v>0.05354047116680552</v>
       </c>
       <c r="Y12">
-        <v>0.04176814326509463</v>
+        <v>0.1190938747018318</v>
       </c>
       <c r="Z12">
-        <v>0.06482904301118986</v>
+        <v>0.124590451812137</v>
       </c>
       <c r="AA12">
-        <v>-0.0005421373899239974</v>
+        <v>0</v>
       </c>
       <c r="AB12">
-        <v>0.04322668423869859</v>
+        <v>0.03864735551136175</v>
       </c>
       <c r="AC12">
-        <v>-0.04376882162862258</v>
+        <v>-0.03864735551136175</v>
       </c>
       <c r="AD12">
-        <v>48236.8</v>
+        <v>158667.3</v>
       </c>
       <c r="AE12">
-        <v>694.9897032681877</v>
+        <v>0</v>
       </c>
       <c r="AF12">
-        <v>48931.78970326819</v>
+        <v>158667.3</v>
       </c>
       <c r="AG12">
-        <v>43651.1897032682</v>
+        <v>156894</v>
       </c>
       <c r="AH12">
-        <v>0.7793437336720761</v>
+        <v>0.4858846975716681</v>
       </c>
       <c r="AI12">
-        <v>0.7538964130137087</v>
+        <v>0.6028844104212967</v>
       </c>
       <c r="AJ12">
-        <v>0.7590812937124873</v>
+        <v>0.4830776269851509</v>
       </c>
       <c r="AK12">
-        <v>0.7321004625860855</v>
+        <v>0.6001905075227518</v>
       </c>
       <c r="AL12">
         <v>0</v>
       </c>
       <c r="AM12">
         <v>0</v>
-      </c>
-      <c r="AN12">
-        <v>473.3738959764475</v>
-      </c>
-      <c r="AP12">
-        <v>428.3728135747614</v>
       </c>
     </row>
     <row r="13">
@@ -2008,13 +1975,13 @@
         </is>
       </c>
       <c r="D13">
-        <v>0.017</v>
+        <v>0.00637</v>
       </c>
       <c r="E13">
-        <v>0.0212</v>
+        <v>0.00412</v>
       </c>
       <c r="F13">
-        <v>0.024</v>
+        <v>0.0204</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -2023,103 +1990,97 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.004222524520982108</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.003414813066238642</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>26076</v>
+        <v>25554.7</v>
       </c>
       <c r="L13">
-        <v>0.4245688532277393</v>
+        <v>0.4085457487082417</v>
       </c>
       <c r="M13">
-        <v>7579.9</v>
+        <v>13925.6</v>
       </c>
       <c r="N13">
-        <v>0.05141111118647287</v>
+        <v>0.1061066003462317</v>
       </c>
       <c r="O13">
-        <v>0.2906849210001534</v>
+        <v>0.5449330260186972</v>
       </c>
       <c r="P13">
-        <v>7579.9</v>
+        <v>7976.5</v>
       </c>
       <c r="Q13">
-        <v>0.05141111118647287</v>
+        <v>0.06077722307561017</v>
       </c>
       <c r="R13">
-        <v>0.2906849210001534</v>
+        <v>0.3121343627591011</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>5949.1</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>0.4272060090768082</v>
       </c>
       <c r="U13">
-        <v>64147</v>
+        <v>125288.5</v>
       </c>
       <c r="V13">
-        <v>0.4350807463526795</v>
+        <v>0.9546401445883013</v>
       </c>
       <c r="W13">
-        <v>0.1211089860118099</v>
+        <v>0.1122959709200336</v>
       </c>
       <c r="X13">
-        <v>0.1153811321984617</v>
+        <v>0.1344431113670854</v>
       </c>
       <c r="Y13">
-        <v>0.005727853813348269</v>
+        <v>-0.02214714044705181</v>
       </c>
       <c r="Z13">
-        <v>0.08234965391191074</v>
+        <v>0.07866192828517717</v>
       </c>
       <c r="AA13">
-        <v>0.0002812086741786229</v>
+        <v>0</v>
       </c>
       <c r="AB13">
-        <v>0.04429989495182839</v>
+        <v>0.03913116612630797</v>
       </c>
       <c r="AC13">
-        <v>-0.04401868627764977</v>
+        <v>-0.03913116612630797</v>
       </c>
       <c r="AD13">
-        <v>598231</v>
+        <v>670860.4</v>
       </c>
       <c r="AE13">
-        <v>3572.813389900646</v>
+        <v>0</v>
       </c>
       <c r="AF13">
-        <v>601803.8133899006</v>
+        <v>670860.4</v>
       </c>
       <c r="AG13">
-        <v>537656.8133899006</v>
+        <v>545571.9</v>
       </c>
       <c r="AH13">
-        <v>0.8032181411301808</v>
+        <v>0.836377917023022</v>
       </c>
       <c r="AI13">
-        <v>0.6839571846779351</v>
+        <v>0.6838744626365268</v>
       </c>
       <c r="AJ13">
-        <v>0.7847929770808036</v>
+        <v>0.8060889742890767</v>
       </c>
       <c r="AK13">
-        <v>0.6591046055763423</v>
+        <v>0.6375875091856597</v>
       </c>
       <c r="AL13">
         <v>0</v>
       </c>
       <c r="AM13">
         <v>0</v>
-      </c>
-      <c r="AN13">
-        <v>614.2632713830989</v>
-      </c>
-      <c r="AP13">
-        <v>552.065728914571</v>
       </c>
     </row>
     <row r="14">
@@ -2130,7 +2091,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>China Merchants Bank Co., Ltd. (SHSE:600036)</t>
+          <t>Ping An Bank Co., Ltd. (SZSE:000001)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2139,13 +2100,10 @@
         </is>
       </c>
       <c r="D14">
-        <v>0.0876</v>
+        <v>0.0433</v>
       </c>
       <c r="E14">
-        <v>0.09269999999999999</v>
-      </c>
-      <c r="F14">
-        <v>0.03759999999999999</v>
+        <v>0.043</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -2154,34 +2112,34 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.006745671005499917</v>
+        <v>0.0008900220573243391</v>
       </c>
       <c r="J14">
-        <v>0.005265877243391452</v>
+        <v>0.0006980351501285119</v>
       </c>
       <c r="K14">
-        <v>12649.6</v>
+        <v>3971.8</v>
       </c>
       <c r="L14">
-        <v>0.4367216872835742</v>
+        <v>0.3374368123699079</v>
       </c>
       <c r="M14">
-        <v>2963.8</v>
+        <v>256.2</v>
       </c>
       <c r="N14">
-        <v>0.02196331493546914</v>
+        <v>0.004456652014104034</v>
       </c>
       <c r="O14">
-        <v>0.2342998988110296</v>
+        <v>0.06450475854776172</v>
       </c>
       <c r="P14">
-        <v>2963.8</v>
+        <v>256.2</v>
       </c>
       <c r="Q14">
-        <v>0.02196331493546914</v>
+        <v>0.004456652014104034</v>
       </c>
       <c r="R14">
-        <v>0.2342998988110296</v>
+        <v>0.06450475854776172</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -2190,55 +2148,55 @@
         <v>0</v>
       </c>
       <c r="U14">
-        <v>2007</v>
+        <v>43157.1</v>
       </c>
       <c r="V14">
-        <v>0.01487292431185862</v>
+        <v>0.7507266847692786</v>
       </c>
       <c r="W14">
-        <v>0.1767575354888653</v>
+        <v>0.1058869948653419</v>
       </c>
       <c r="X14">
-        <v>0.06586875897967549</v>
+        <v>0.07928508155126993</v>
       </c>
       <c r="Y14">
-        <v>0.1108887765091898</v>
+        <v>0.02660191331407193</v>
       </c>
       <c r="Z14">
-        <v>0.1262403095653674</v>
+        <v>0.1180754973228088</v>
       </c>
       <c r="AA14">
-        <v>0.0006647659733389604</v>
+        <v>8.242084750022556e-05</v>
       </c>
       <c r="AB14">
-        <v>0.04520465884809025</v>
+        <v>0.04013040436360571</v>
       </c>
       <c r="AC14">
-        <v>-0.04453989287475129</v>
+        <v>-0.04004798351610549</v>
       </c>
       <c r="AD14">
-        <v>172799.7</v>
+        <v>130532.2</v>
       </c>
       <c r="AE14">
-        <v>1839.561569463977</v>
+        <v>18.61997687131932</v>
       </c>
       <c r="AF14">
-        <v>174639.261569464</v>
+        <v>130550.8199768713</v>
       </c>
       <c r="AG14">
-        <v>172632.261569464</v>
+        <v>87393.7199768713</v>
       </c>
       <c r="AH14">
-        <v>0.5641122584403203</v>
+        <v>0.6942792176861405</v>
       </c>
       <c r="AI14">
-        <v>0.674342065828901</v>
+        <v>0.711903607893572</v>
       </c>
       <c r="AJ14">
-        <v>0.5612679915640022</v>
+        <v>0.6032111082117204</v>
       </c>
       <c r="AK14">
-        <v>0.6717985984646639</v>
+        <v>0.6232364669971575</v>
       </c>
       <c r="AL14">
         <v>0</v>
@@ -2247,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="AN14">
-        <v>306.7631812533286</v>
+        <v>9192.408450704226</v>
       </c>
       <c r="AP14">
-        <v>306.4659356816333</v>
+        <v>6154.487322314881</v>
       </c>
     </row>
     <row r="15">
@@ -2261,7 +2219,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Ping An Bank Co., Ltd. (SZSE:000001)</t>
+          <t>Bank of Communications Co., Ltd. (SEHK:3328)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2270,10 +2228,13 @@
         </is>
       </c>
       <c r="D15">
-        <v>0.06469999999999999</v>
+        <v>0.0128</v>
       </c>
       <c r="E15">
-        <v>0.0779</v>
+        <v>0.0103</v>
+      </c>
+      <c r="F15">
+        <v>0.005679999999999999</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -2282,34 +2243,34 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.01032193998908384</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.007947981091887534</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>3914.8</v>
+        <v>10285.4</v>
       </c>
       <c r="L15">
-        <v>0.3579114820943691</v>
+        <v>0.3990641659359505</v>
       </c>
       <c r="M15">
-        <v>388.1180000000001</v>
+        <v>3416.0842</v>
       </c>
       <c r="N15">
-        <v>0.008465541760820821</v>
+        <v>0.07516318766790835</v>
       </c>
       <c r="O15">
-        <v>0.09914120772453255</v>
+        <v>0.3321294456219496</v>
       </c>
       <c r="P15">
-        <v>388.1180000000001</v>
+        <v>3416.0842</v>
       </c>
       <c r="Q15">
-        <v>0.008465541760820821</v>
+        <v>0.07516318766790835</v>
       </c>
       <c r="R15">
-        <v>0.09914120772453255</v>
+        <v>0.3321294456219496</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -2318,67 +2279,61 @@
         <v>0</v>
       </c>
       <c r="U15">
-        <v>22209.8</v>
+        <v>46899</v>
       </c>
       <c r="V15">
-        <v>0.4844351186996693</v>
+        <v>1.031906162745413</v>
       </c>
       <c r="W15">
-        <v>0.1249098624804569</v>
+        <v>0.1088433214493959</v>
       </c>
       <c r="X15">
-        <v>0.07531950730874927</v>
+        <v>0.1831520682289852</v>
       </c>
       <c r="Y15">
-        <v>0.04959035517170765</v>
+        <v>-0.07430874677958926</v>
       </c>
       <c r="Z15">
-        <v>0.1330662603896218</v>
+        <v>0.2010802275296524</v>
       </c>
       <c r="AA15">
-        <v>0.001057608121544898</v>
+        <v>0</v>
       </c>
       <c r="AB15">
-        <v>0.04607560779028549</v>
+        <v>0.04037556239321094</v>
       </c>
       <c r="AC15">
-        <v>-0.04501799966874059</v>
+        <v>-0.04037556239321094</v>
       </c>
       <c r="AD15">
-        <v>82635</v>
+        <v>346329.6</v>
       </c>
       <c r="AE15">
-        <v>1092.998262966999</v>
+        <v>0</v>
       </c>
       <c r="AF15">
-        <v>83727.998262967</v>
+        <v>346329.6</v>
       </c>
       <c r="AG15">
-        <v>61518.19826296699</v>
+        <v>299430.6</v>
       </c>
       <c r="AH15">
-        <v>0.6461750231171056</v>
+        <v>0.8839933789118085</v>
       </c>
       <c r="AI15">
-        <v>0.6750668345484803</v>
+        <v>0.7375981019600159</v>
       </c>
       <c r="AJ15">
-        <v>0.5729818773180778</v>
+        <v>0.8682180297756172</v>
       </c>
       <c r="AK15">
-        <v>0.6041893716960017</v>
+        <v>0.7084800704148704</v>
       </c>
       <c r="AL15">
         <v>0</v>
       </c>
       <c r="AM15">
         <v>0</v>
-      </c>
-      <c r="AN15">
-        <v>249.2760180995475</v>
-      </c>
-      <c r="AP15">
-        <v>185.575258711816</v>
       </c>
     </row>
     <row r="16">
@@ -2398,13 +2353,13 @@
         </is>
       </c>
       <c r="D16">
-        <v>0.0272</v>
+        <v>-0.00797</v>
       </c>
       <c r="E16">
-        <v>0.0361</v>
+        <v>0.0134</v>
       </c>
       <c r="F16">
-        <v>0.0209</v>
+        <v>0.0159</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -2413,34 +2368,34 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.01070187801399211</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.009187552778936597</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>6780.4</v>
+        <v>6506</v>
       </c>
       <c r="L16">
-        <v>0.4229687158853435</v>
+        <v>0.4219715788586142</v>
       </c>
       <c r="M16">
-        <v>1591.8</v>
+        <v>54.3</v>
       </c>
       <c r="N16">
-        <v>0.04071360061384999</v>
+        <v>0.001647031703085379</v>
       </c>
       <c r="O16">
-        <v>0.2347649106247419</v>
+        <v>0.008346142022748231</v>
       </c>
       <c r="P16">
-        <v>1591.8</v>
+        <v>54.3</v>
       </c>
       <c r="Q16">
-        <v>0.04071360061384999</v>
+        <v>0.001647031703085379</v>
       </c>
       <c r="R16">
-        <v>0.2347649106247419</v>
+        <v>0.008346142022748231</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -2449,67 +2404,61 @@
         <v>0</v>
       </c>
       <c r="U16">
-        <v>32501.8</v>
+        <v>44810.6</v>
       </c>
       <c r="V16">
-        <v>0.8313012340942515</v>
+        <v>1.359198505235316</v>
       </c>
       <c r="W16">
-        <v>0.1196677738518396</v>
+        <v>0.09877675330255353</v>
       </c>
       <c r="X16">
-        <v>0.1050478928983199</v>
+        <v>0.1352613924217678</v>
       </c>
       <c r="Y16">
-        <v>0.01461988095351968</v>
+        <v>-0.03648463911921423</v>
       </c>
       <c r="Z16">
-        <v>0.09487056942858621</v>
+        <v>0.09155842497727089</v>
       </c>
       <c r="AA16">
-        <v>0.0008716283637929045</v>
+        <v>0</v>
       </c>
       <c r="AB16">
-        <v>0.04608432469072322</v>
+        <v>0.04114963023701554</v>
       </c>
       <c r="AC16">
-        <v>-0.04521269632693032</v>
+        <v>-0.04114963023701554</v>
       </c>
       <c r="AD16">
-        <v>135162.4</v>
+        <v>169912.1</v>
       </c>
       <c r="AE16">
-        <v>1678.717722483498</v>
+        <v>0</v>
       </c>
       <c r="AF16">
-        <v>136841.1177224835</v>
+        <v>169912.1</v>
       </c>
       <c r="AG16">
-        <v>104339.3177224835</v>
+        <v>125101.5</v>
       </c>
       <c r="AH16">
-        <v>0.7777776107024418</v>
+        <v>0.8374984288780835</v>
       </c>
       <c r="AI16">
-        <v>0.6680624679385209</v>
+        <v>0.6773613571138408</v>
       </c>
       <c r="AJ16">
-        <v>0.7274235400589795</v>
+        <v>0.7914315122613477</v>
       </c>
       <c r="AK16">
-        <v>0.6054587218332819</v>
+        <v>0.6071900928732463</v>
       </c>
       <c r="AL16">
         <v>0</v>
       </c>
       <c r="AM16">
         <v>0</v>
-      </c>
-      <c r="AN16">
-        <v>266.434851172876</v>
-      </c>
-      <c r="AP16">
-        <v>205.6757692144362</v>
       </c>
     </row>
     <row r="17">
@@ -2520,7 +2469,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Jilin Jiutai Rural Commercial Bank Corporation Limited (SEHK:6122)</t>
+          <t>Shanghai Pudong Development Bank Co., Ltd. (SHSE:600000)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2528,6 +2477,15 @@
           <t>Bank (Money Center)</t>
         </is>
       </c>
+      <c r="D17">
+        <v>0.0122</v>
+      </c>
+      <c r="E17">
+        <v>0.0229</v>
+      </c>
+      <c r="F17">
+        <v>0.0231</v>
+      </c>
       <c r="G17">
         <v>0</v>
       </c>
@@ -2535,34 +2493,34 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.005022857435653104</v>
+        <v>0.009655260414212748</v>
       </c>
       <c r="J17">
-        <v>0.004218711403375795</v>
+        <v>0.008460173561779472</v>
       </c>
       <c r="K17">
-        <v>151.4</v>
+        <v>8143.8</v>
       </c>
       <c r="L17">
-        <v>0.2671607552496912</v>
+        <v>0.5008271476627697</v>
       </c>
       <c r="M17">
-        <v>100.416</v>
+        <v>1684.6</v>
       </c>
       <c r="N17">
-        <v>0.06030266634638481</v>
+        <v>0.03870810604633208</v>
       </c>
       <c r="O17">
-        <v>0.6632496697490092</v>
+        <v>0.2068567499201847</v>
       </c>
       <c r="P17">
-        <v>100.416</v>
+        <v>1684.6</v>
       </c>
       <c r="Q17">
-        <v>0.06030266634638481</v>
+        <v>0.03870810604633208</v>
       </c>
       <c r="R17">
-        <v>0.6632496697490092</v>
+        <v>0.2068567499201847</v>
       </c>
       <c r="S17">
         <v>0</v>
@@ -2571,55 +2529,55 @@
         <v>0</v>
       </c>
       <c r="U17">
-        <v>2738.3</v>
+        <v>34534.8</v>
       </c>
       <c r="V17">
-        <v>1.644427095844343</v>
+        <v>0.7935276627620025</v>
       </c>
       <c r="W17">
-        <v>0.08023742646669139</v>
+        <v>0.1141053286423458</v>
       </c>
       <c r="X17">
-        <v>0.08274102155379998</v>
+        <v>0.1511928323486238</v>
       </c>
       <c r="Y17">
-        <v>-0.002503595087108582</v>
+        <v>-0.03708750370627796</v>
       </c>
       <c r="Z17">
-        <v>0.1550662188614245</v>
+        <v>0.0612259051831212</v>
       </c>
       <c r="AA17">
-        <v>0.0006541796257890581</v>
+        <v>0.0005179817843262587</v>
       </c>
       <c r="AB17">
-        <v>0.04630082897149035</v>
+        <v>0.04263105634069326</v>
       </c>
       <c r="AC17">
-        <v>-0.04564664934570129</v>
+        <v>-0.042113074556367</v>
       </c>
       <c r="AD17">
-        <v>3632.1</v>
+        <v>258817.8</v>
       </c>
       <c r="AE17">
-        <v>104.7677334560769</v>
+        <v>1185.993534913054</v>
       </c>
       <c r="AF17">
-        <v>3736.867733456077</v>
+        <v>260003.793534913</v>
       </c>
       <c r="AG17">
-        <v>998.5677334560769</v>
+        <v>225468.9935349131</v>
       </c>
       <c r="AH17">
-        <v>0.6917476636423705</v>
+        <v>0.8566158077341023</v>
       </c>
       <c r="AI17">
-        <v>0.6294342237738727</v>
+        <v>0.7526176191018837</v>
       </c>
       <c r="AJ17">
-        <v>0.3748704216641651</v>
+        <v>0.838207123821869</v>
       </c>
       <c r="AK17">
-        <v>0.3121921486956029</v>
+        <v>0.7251411187523588</v>
       </c>
       <c r="AL17">
         <v>0</v>
@@ -2628,10 +2586,10 @@
         <v>0</v>
       </c>
       <c r="AN17">
-        <v>152.609243697479</v>
+        <v>656.5646879756468</v>
       </c>
       <c r="AP17">
-        <v>41.95662745613768</v>
+        <v>571.9659907024684</v>
       </c>
     </row>
     <row r="18">
@@ -2642,7 +2600,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Shanghai Pudong Development Bank Co., Ltd. (SHSE:600000)</t>
+          <t>Jilin Jiutai Rural Commercial Bank Corporation Limited (SEHK:6122)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2650,15 +2608,6 @@
           <t>Bank (Money Center)</t>
         </is>
       </c>
-      <c r="D18">
-        <v>0.0461</v>
-      </c>
-      <c r="E18">
-        <v>0.0587</v>
-      </c>
-      <c r="F18">
-        <v>0.0204</v>
-      </c>
       <c r="G18">
         <v>0</v>
       </c>
@@ -2666,34 +2615,34 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.005656328553590485</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.004840200907742043</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>8541.799999999999</v>
+        <v>169.9</v>
       </c>
       <c r="L18">
-        <v>0.51107800374552</v>
+        <v>0.2678965625985493</v>
       </c>
       <c r="M18">
-        <v>410.6</v>
+        <v>109.83</v>
       </c>
       <c r="N18">
-        <v>0.007874106348378387</v>
+        <v>0.07784392940676163</v>
       </c>
       <c r="O18">
-        <v>0.04806949354936899</v>
+        <v>0.6464390818128311</v>
       </c>
       <c r="P18">
-        <v>410.6</v>
+        <v>109.83</v>
       </c>
       <c r="Q18">
-        <v>0.007874106348378387</v>
+        <v>0.07784392940676163</v>
       </c>
       <c r="R18">
-        <v>0.04806949354936899</v>
+        <v>0.6464390818128311</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -2702,67 +2651,61 @@
         <v>0</v>
       </c>
       <c r="U18">
-        <v>21335.5</v>
+        <v>2974.9</v>
       </c>
       <c r="V18">
-        <v>0.4091524500629008</v>
+        <v>2.108512297115317</v>
       </c>
       <c r="W18">
-        <v>0.1379082086528045</v>
+        <v>0.0901756806963537</v>
       </c>
       <c r="X18">
-        <v>0.115241892871574</v>
+        <v>0.07400181914407417</v>
       </c>
       <c r="Y18">
-        <v>0.02266631578123048</v>
+        <v>0.01617386155227954</v>
       </c>
       <c r="Z18">
-        <v>0.04703290792456825</v>
+        <v>0.2330075685208318</v>
       </c>
       <c r="AA18">
-        <v>0.0002276487236302432</v>
+        <v>0</v>
       </c>
       <c r="AB18">
-        <v>0.04721152780115354</v>
+        <v>0.04277246439669254</v>
       </c>
       <c r="AC18">
-        <v>-0.04698387907752329</v>
+        <v>-0.04277246439669254</v>
       </c>
       <c r="AD18">
-        <v>211154.7</v>
+        <v>2820.2</v>
       </c>
       <c r="AE18">
-        <v>1282.820419926381</v>
+        <v>0</v>
       </c>
       <c r="AF18">
-        <v>212437.5204199264</v>
+        <v>2820.2</v>
       </c>
       <c r="AG18">
-        <v>191102.0204199264</v>
+        <v>-154.7000000000003</v>
       </c>
       <c r="AH18">
-        <v>0.8029141091191365</v>
+        <v>0.6665406159154829</v>
       </c>
       <c r="AI18">
-        <v>0.7351155194415547</v>
+        <v>0.5341186719948485</v>
       </c>
       <c r="AJ18">
-        <v>0.7856275020903418</v>
+        <v>-0.1231491800668686</v>
       </c>
       <c r="AK18">
-        <v>0.7140004484970085</v>
+        <v>-0.06710914454277299</v>
       </c>
       <c r="AL18">
         <v>0</v>
       </c>
       <c r="AM18">
         <v>0</v>
-      </c>
-      <c r="AN18">
-        <v>601.4090002848192</v>
-      </c>
-      <c r="AP18">
-        <v>544.2951307887394</v>
       </c>
     </row>
     <row r="19">
@@ -2773,7 +2716,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>China Minsheng Banking Corp., Ltd. (SHSE:600016)</t>
+          <t>China Bohai Bank Co., Ltd. (SEHK:9668)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2782,13 +2725,13 @@
         </is>
       </c>
       <c r="D19">
-        <v>0.00482</v>
+        <v>0.07580000000000001</v>
       </c>
       <c r="E19">
-        <v>0.0306</v>
+        <v>0.103</v>
       </c>
       <c r="F19">
-        <v>0.0118</v>
+        <v>0.11</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -2797,34 +2740,34 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.007146002625224462</v>
+        <v>0.005779342616213482</v>
       </c>
       <c r="J19">
-        <v>0.006100417807378364</v>
+        <v>0.004769650436192725</v>
       </c>
       <c r="K19">
-        <v>7438.6</v>
+        <v>1197.5</v>
       </c>
       <c r="L19">
-        <v>0.4618928753275462</v>
+        <v>0.4438637458764224</v>
       </c>
       <c r="M19">
-        <v>2101.5552</v>
+        <v>291.7</v>
       </c>
       <c r="N19">
-        <v>0.05468741168663883</v>
+        <v>0.02511450907462892</v>
       </c>
       <c r="O19">
-        <v>0.282520259188557</v>
+        <v>0.2435908141962422</v>
       </c>
       <c r="P19">
-        <v>2101.5552</v>
+        <v>291.7</v>
       </c>
       <c r="Q19">
-        <v>0.05468741168663883</v>
+        <v>0.02511450907462892</v>
       </c>
       <c r="R19">
-        <v>0.282520259188557</v>
+        <v>0.2435908141962422</v>
       </c>
       <c r="S19">
         <v>0</v>
@@ -2833,55 +2776,55 @@
         <v>0</v>
       </c>
       <c r="U19">
-        <v>14658.9</v>
+        <v>6713.5</v>
       </c>
       <c r="V19">
-        <v>0.3814590733440025</v>
+        <v>0.5780125357302752</v>
       </c>
       <c r="W19">
-        <v>0.1272863232141054</v>
+        <v>0.1329211574963093</v>
       </c>
       <c r="X19">
-        <v>0.1315893299410908</v>
+        <v>0.1101051546523493</v>
       </c>
       <c r="Y19">
-        <v>-0.004303006726985387</v>
+        <v>0.02281600284396</v>
       </c>
       <c r="Z19">
-        <v>0.06912742001120604</v>
+        <v>0.05950500994980021</v>
       </c>
       <c r="AA19">
-        <v>0.0004217061440144848</v>
+        <v>0.000283818096662717</v>
       </c>
       <c r="AB19">
-        <v>0.05012417355253615</v>
+        <v>0.04422436887781045</v>
       </c>
       <c r="AC19">
-        <v>-0.04970246740852167</v>
+        <v>-0.04394055078114773</v>
       </c>
       <c r="AD19">
-        <v>190140.2</v>
+        <v>44230.9</v>
       </c>
       <c r="AE19">
-        <v>1783.582430609051</v>
+        <v>581.5395577785882</v>
       </c>
       <c r="AF19">
-        <v>191923.782430609</v>
+        <v>44812.43955777859</v>
       </c>
       <c r="AG19">
-        <v>177264.8824306091</v>
+        <v>38098.93955777859</v>
       </c>
       <c r="AH19">
-        <v>0.8331750847245191</v>
+        <v>0.794163242947459</v>
       </c>
       <c r="AI19">
-        <v>0.7316851501422073</v>
+        <v>0.783409063488497</v>
       </c>
       <c r="AJ19">
-        <v>0.8218373713326005</v>
+        <v>0.7663663988402848</v>
       </c>
       <c r="AK19">
-        <v>0.7158027280465983</v>
+        <v>0.7546086857179837</v>
       </c>
       <c r="AL19">
         <v>0</v>
@@ -2890,10 +2833,10 @@
         <v>0</v>
       </c>
       <c r="AN19">
-        <v>403.0101738024587</v>
+        <v>335.3366186504928</v>
       </c>
       <c r="AP19">
-        <v>375.7203951475393</v>
+        <v>288.8471535843714</v>
       </c>
     </row>
     <row r="20">
@@ -2913,10 +2856,10 @@
         </is>
       </c>
       <c r="D20">
-        <v>0.0242</v>
+        <v>0.012</v>
       </c>
       <c r="E20">
-        <v>0.04219999999999999</v>
+        <v>0.0212</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2925,34 +2868,34 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.01051825284020465</v>
+        <v>0.009112572856080654</v>
       </c>
       <c r="J20">
-        <v>0.008369362475001545</v>
+        <v>0.007271791345898687</v>
       </c>
       <c r="K20">
-        <v>3019.7</v>
+        <v>3060.2</v>
       </c>
       <c r="L20">
-        <v>0.408841050636339</v>
+        <v>0.3905009825689712</v>
       </c>
       <c r="M20">
-        <v>369.2928</v>
+        <v>569.3264</v>
       </c>
       <c r="N20">
-        <v>0.02178744291968047</v>
+        <v>0.03864923356821854</v>
       </c>
       <c r="O20">
-        <v>0.1222945325694605</v>
+        <v>0.1860422194627802</v>
       </c>
       <c r="P20">
-        <v>369.2928</v>
+        <v>569.3264</v>
       </c>
       <c r="Q20">
-        <v>0.02178744291968047</v>
+        <v>0.03864923356821854</v>
       </c>
       <c r="R20">
-        <v>0.1222945325694605</v>
+        <v>0.1860422194627802</v>
       </c>
       <c r="S20">
         <v>0</v>
@@ -2961,55 +2904,55 @@
         <v>0</v>
       </c>
       <c r="U20">
-        <v>18864.7</v>
+        <v>10728</v>
       </c>
       <c r="V20">
-        <v>1.112974784363237</v>
+        <v>0.7282799071320923</v>
       </c>
       <c r="W20">
-        <v>0.1288916775509855</v>
+        <v>0.0906154042041615</v>
       </c>
       <c r="X20">
-        <v>0.157864438398766</v>
+        <v>0.1812567768481999</v>
       </c>
       <c r="Y20">
-        <v>-0.02897276084778047</v>
+        <v>-0.0906413726440384</v>
       </c>
       <c r="Z20">
-        <v>0.04983991948158609</v>
+        <v>0.06149630715677248</v>
       </c>
       <c r="AA20">
-        <v>0.0004171283518662851</v>
+        <v>0.0004471883141873455</v>
       </c>
       <c r="AB20">
-        <v>0.05041119339024686</v>
+        <v>0.04550924966793599</v>
       </c>
       <c r="AC20">
-        <v>-0.04999406503838057</v>
+        <v>-0.04506206135374864</v>
       </c>
       <c r="AD20">
-        <v>108805.1</v>
+        <v>109886.8</v>
       </c>
       <c r="AE20">
-        <v>921.5609226112424</v>
+        <v>925.4420577801918</v>
       </c>
       <c r="AF20">
-        <v>109726.6609226112</v>
+        <v>110812.2420577802</v>
       </c>
       <c r="AG20">
-        <v>90861.96092261125</v>
+        <v>100084.2420577802</v>
       </c>
       <c r="AH20">
-        <v>0.8661961355996919</v>
+        <v>0.8826647560422414</v>
       </c>
       <c r="AI20">
-        <v>0.7488521884150604</v>
+        <v>0.7321218839778043</v>
       </c>
       <c r="AJ20">
-        <v>0.8427833860151231</v>
+        <v>0.8717012562488491</v>
       </c>
       <c r="AK20">
-        <v>0.7117398370972801</v>
+        <v>0.7116866728328782</v>
       </c>
       <c r="AL20">
         <v>0</v>
@@ -3018,10 +2961,135 @@
         <v>0</v>
       </c>
       <c r="AN20">
-        <v>415.2866412213741</v>
+        <v>428.4085769980507</v>
       </c>
       <c r="AP20">
-        <v>346.8013775672185</v>
+        <v>390.1919768334511</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>China Minsheng Banking Corp., Ltd. (SHSE:600016)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Bank (Money Center)</t>
+        </is>
+      </c>
+      <c r="D21">
+        <v>-0.0231</v>
+      </c>
+      <c r="E21">
+        <v>-0.00229</v>
+      </c>
+      <c r="F21">
+        <v>0.011</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>6717.8</v>
+      </c>
+      <c r="L21">
+        <v>0.4311754662969667</v>
+      </c>
+      <c r="M21">
+        <v>2224.3</v>
+      </c>
+      <c r="N21">
+        <v>0.06742632303280528</v>
+      </c>
+      <c r="O21">
+        <v>0.3311054214177261</v>
+      </c>
+      <c r="P21">
+        <v>2224.3</v>
+      </c>
+      <c r="Q21">
+        <v>0.06742632303280528</v>
+      </c>
+      <c r="R21">
+        <v>0.3311054214177261</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>16633.5</v>
+      </c>
+      <c r="V21">
+        <v>0.5042196395118314</v>
+      </c>
+      <c r="W21">
+        <v>0.09971737491167967</v>
+      </c>
+      <c r="X21">
+        <v>0.1672981642970724</v>
+      </c>
+      <c r="Y21">
+        <v>-0.06758078938539269</v>
+      </c>
+      <c r="Z21">
+        <v>0.06379220549506702</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0.04538287614672444</v>
+      </c>
+      <c r="AC21">
+        <v>-0.04538287614672444</v>
+      </c>
+      <c r="AD21">
+        <v>224444.8</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>224444.8</v>
+      </c>
+      <c r="AG21">
+        <v>207811.3</v>
+      </c>
+      <c r="AH21">
+        <v>0.8718557887205001</v>
+      </c>
+      <c r="AI21">
+        <v>0.7368025736983783</v>
+      </c>
+      <c r="AJ21">
+        <v>0.8630040959319335</v>
+      </c>
+      <c r="AK21">
+        <v>0.7216008389282136</v>
+      </c>
+      <c r="AL21">
+        <v>0</v>
+      </c>
+      <c r="AM21">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
